--- a/odara/conciliacao.xlsx
+++ b/odara/conciliacao.xlsx
@@ -479,7 +479,7 @@
     <numFmt formatCode="DD/MM/YY" numFmtId="164"/>
     <numFmt formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00" numFmtId="165"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -501,16 +501,26 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="00fff000"/>
+        <bgColor rgb="006efdfd"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -518,8 +528,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -528,8 +553,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -555,14 +581,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
     <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
     <cellStyle builtinId="4" name="Currency" xfId="3"/>
     <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
     <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle hidden="0" name="highlight" xfId="6"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2136,13 +2164,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="6" spans="1:4">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="9" t="n">
         <v>42006</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="9" t="n">
         <v>3452.27</v>
       </c>
     </row>
@@ -2180,24 +2208,24 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="6" spans="1:4">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="9" t="n">
         <v>42009</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="9" t="n">
         <v>538</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="7" s="6" spans="1:4">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="9" t="n">
         <v>42009</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="9" t="n">
         <v>733.34</v>
       </c>
     </row>
@@ -2213,13 +2241,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="9" s="6" spans="1:4">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="9" t="n">
         <v>42009</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="9" t="n">
         <v>218.4</v>
       </c>
     </row>
@@ -2356,46 +2384,46 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="22" s="6" spans="1:4">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="9" t="n">
         <v>42010</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="9" t="n">
         <v>4389.53</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="23" s="6" spans="1:4">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="9" t="n">
         <v>42010</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="9" t="n">
         <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="24" s="6" spans="1:4">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="9" t="n">
         <v>42010</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="9" t="n">
         <v>119</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="25" s="6" spans="1:4">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="9" t="n">
         <v>42010</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="9" t="n">
         <v>278</v>
       </c>
     </row>
@@ -2565,24 +2593,24 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="41" s="6" spans="1:4">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="9" t="n">
         <v>42012</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="9" t="n">
         <v>538.8</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="42" s="6" spans="1:4">
-      <c r="A42" s="7" t="n">
+      <c r="A42" s="9" t="n">
         <v>42012</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="9" t="n">
         <v>1956.36</v>
       </c>
     </row>
@@ -2752,68 +2780,68 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="58" s="6" spans="1:4">
-      <c r="A58" s="7" t="n">
+      <c r="A58" s="9" t="n">
         <v>42016</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="9" t="n">
         <v>3766.66</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="59" s="6" spans="1:4">
-      <c r="A59" s="7" t="n">
+      <c r="A59" s="9" t="n">
         <v>42016</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="9" t="n">
         <v>213.2</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="60" s="6" spans="1:4">
-      <c r="A60" s="7" t="n">
+      <c r="A60" s="9" t="n">
         <v>42016</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="5" t="n">
+      <c r="C60" s="9" t="n">
         <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="61" s="6" spans="1:4">
-      <c r="A61" s="7" t="n">
+      <c r="A61" s="9" t="n">
         <v>42016</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="9" t="n">
         <v>188.99</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="62" s="6" spans="1:4">
-      <c r="A62" s="7" t="n">
+      <c r="A62" s="9" t="n">
         <v>42016</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" s="9" t="n">
         <v>1400</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="63" s="6" spans="1:4">
-      <c r="A63" s="7" t="n">
+      <c r="A63" s="9" t="n">
         <v>42016</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="9" t="n">
         <v>34.37</v>
       </c>
     </row>
@@ -2829,13 +2857,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="65" s="6" spans="1:4">
-      <c r="A65" s="7" t="n">
+      <c r="A65" s="9" t="n">
         <v>42016</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="9" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2873,13 +2901,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="69" s="6" spans="1:4">
-      <c r="A69" s="7" t="n">
+      <c r="A69" s="9" t="n">
         <v>42016</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="9" t="n">
         <v>326.66</v>
       </c>
     </row>
@@ -2928,13 +2956,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="74" s="6" spans="1:4">
-      <c r="A74" s="7" t="n">
+      <c r="A74" s="9" t="n">
         <v>42017</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C74" s="9" t="n">
         <v>468</v>
       </c>
     </row>
@@ -3005,13 +3033,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="81" s="6" spans="1:4">
-      <c r="A81" s="7" t="n">
+      <c r="A81" s="9" t="n">
         <v>42018</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" s="9" t="n">
         <v>1841.55</v>
       </c>
     </row>
@@ -3027,13 +3055,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="83" s="6" spans="1:4">
-      <c r="A83" s="7" t="n">
+      <c r="A83" s="9" t="n">
         <v>42018</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="5" t="n">
+      <c r="C83" s="9" t="n">
         <v>140.7</v>
       </c>
     </row>
@@ -3115,46 +3143,46 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="91" s="6" spans="1:4">
-      <c r="A91" s="7" t="n">
+      <c r="A91" s="9" t="n">
         <v>42019</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="5" t="n">
+      <c r="C91" s="9" t="n">
         <v>180.95</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="92" s="6" spans="1:4">
-      <c r="A92" s="7" t="n">
+      <c r="A92" s="9" t="n">
         <v>42019</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C92" s="5" t="n">
+      <c r="C92" s="9" t="n">
         <v>1337.63</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="93" s="6" spans="1:4">
-      <c r="A93" s="7" t="n">
+      <c r="A93" s="9" t="n">
         <v>42019</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="5" t="n">
+      <c r="C93" s="9" t="n">
         <v>365.14</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="94" s="6" spans="1:4">
-      <c r="A94" s="7" t="n">
+      <c r="A94" s="9" t="n">
         <v>42019</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="9" t="n">
         <v>54.89</v>
       </c>
     </row>
@@ -3170,46 +3198,46 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="96" s="6" spans="1:4">
-      <c r="A96" s="7" t="n">
+      <c r="A96" s="9" t="n">
         <v>42019</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="5" t="n">
+      <c r="C96" s="9" t="n">
         <v>1250</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="97" s="6" spans="1:4">
-      <c r="A97" s="7" t="n">
+      <c r="A97" s="9" t="n">
         <v>42019</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="5" t="n">
+      <c r="C97" s="9" t="n">
         <v>296.86</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="98" s="6" spans="1:4">
-      <c r="A98" s="7" t="n">
+      <c r="A98" s="9" t="n">
         <v>42019</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="5" t="n">
+      <c r="C98" s="9" t="n">
         <v>314.5</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="99" s="6" spans="1:4">
-      <c r="A99" s="7" t="n">
+      <c r="A99" s="9" t="n">
         <v>42019</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="5" t="n">
+      <c r="C99" s="9" t="n">
         <v>460</v>
       </c>
     </row>
@@ -3324,13 +3352,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="110" s="6" spans="1:4">
-      <c r="A110" s="7" t="n">
+      <c r="A110" s="9" t="n">
         <v>42020</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C110" s="5" t="n">
+      <c r="C110" s="9" t="n">
         <v>193.79</v>
       </c>
     </row>
@@ -3412,90 +3440,90 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="118" s="6" spans="1:4">
-      <c r="A118" s="7" t="n">
+      <c r="A118" s="9" t="n">
         <v>42023</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="5" t="n">
+      <c r="C118" s="9" t="n">
         <v>402.16</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="119" s="6" spans="1:4">
-      <c r="A119" s="7" t="n">
+      <c r="A119" s="9" t="n">
         <v>42023</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="5" t="n">
+      <c r="C119" s="9" t="n">
         <v>14190.11</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="120" s="6" spans="1:4">
-      <c r="A120" s="7" t="n">
+      <c r="A120" s="9" t="n">
         <v>42023</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="5" t="n">
+      <c r="C120" s="9" t="n">
         <v>357.94</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="121" s="6" spans="1:4">
-      <c r="A121" s="7" t="n">
+      <c r="A121" s="9" t="n">
         <v>42023</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="5" t="n">
+      <c r="C121" s="9" t="n">
         <v>224.27</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="122" s="6" spans="1:4">
-      <c r="A122" s="7" t="n">
+      <c r="A122" s="9" t="n">
         <v>42023</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C122" s="5" t="n">
+      <c r="C122" s="9" t="n">
         <v>410</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="123" s="6" spans="1:4">
-      <c r="A123" s="7" t="n">
+      <c r="A123" s="9" t="n">
         <v>42023</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="5" t="n">
+      <c r="C123" s="9" t="n">
         <v>1021.75</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="124" s="6" spans="1:4">
-      <c r="A124" s="7" t="n">
+      <c r="A124" s="9" t="n">
         <v>42023</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C124" s="5" t="n">
+      <c r="C124" s="9" t="n">
         <v>1250</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="125" s="6" spans="1:4">
-      <c r="A125" s="7" t="n">
+      <c r="A125" s="9" t="n">
         <v>42023</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C125" s="5" t="n">
+      <c r="C125" s="9" t="n">
         <v>624</v>
       </c>
     </row>
@@ -3566,24 +3594,24 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="132" s="6" spans="1:4">
-      <c r="A132" s="7" t="n">
+      <c r="A132" s="9" t="n">
         <v>42024</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C132" s="5" t="n">
+      <c r="C132" s="9" t="n">
         <v>201.88</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="133" s="6" spans="1:4">
-      <c r="A133" s="7" t="n">
+      <c r="A133" s="9" t="n">
         <v>42024</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C133" s="5" t="n">
+      <c r="C133" s="9" t="n">
         <v>142.17</v>
       </c>
     </row>
@@ -3698,13 +3726,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="144" s="6" spans="1:4">
-      <c r="A144" s="7" t="n">
+      <c r="A144" s="9" t="n">
         <v>42025</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C144" s="5" t="n">
+      <c r="C144" s="9" t="n">
         <v>7130.09</v>
       </c>
     </row>
@@ -3720,13 +3748,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="146" s="6" spans="1:4">
-      <c r="A146" s="7" t="n">
+      <c r="A146" s="9" t="n">
         <v>42025</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C146" s="5" t="n">
+      <c r="C146" s="9" t="n">
         <v>3088.89</v>
       </c>
     </row>
@@ -3808,13 +3836,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="154" s="6" spans="1:4">
-      <c r="A154" s="7" t="n">
+      <c r="A154" s="9" t="n">
         <v>42026</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C154" s="5" t="n">
+      <c r="C154" s="9" t="n">
         <v>722.16</v>
       </c>
     </row>
@@ -3841,24 +3869,24 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="157" s="6" spans="1:4">
-      <c r="A157" s="7" t="n">
+      <c r="A157" s="9" t="n">
         <v>42027</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C157" s="5" t="n">
+      <c r="C157" s="9" t="n">
         <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="158" s="6" spans="1:4">
-      <c r="A158" s="7" t="n">
+      <c r="A158" s="9" t="n">
         <v>42027</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C158" s="5" t="n">
+      <c r="C158" s="9" t="n">
         <v>380</v>
       </c>
     </row>
@@ -3907,57 +3935,57 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="163" s="6" spans="1:4">
-      <c r="A163" s="7" t="n">
+      <c r="A163" s="9" t="n">
         <v>42030</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C163" s="5" t="n">
+      <c r="C163" s="9" t="n">
         <v>2230.74</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="164" s="6" spans="1:4">
-      <c r="A164" s="7" t="n">
+      <c r="A164" s="9" t="n">
         <v>42030</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C164" s="5" t="n">
+      <c r="C164" s="9" t="n">
         <v>623.6</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="165" s="6" spans="1:4">
-      <c r="A165" s="7" t="n">
+      <c r="A165" s="9" t="n">
         <v>42030</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C165" s="5" t="n">
+      <c r="C165" s="9" t="n">
         <v>240</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="166" s="6" spans="1:4">
-      <c r="A166" s="7" t="n">
+      <c r="A166" s="9" t="n">
         <v>42030</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C166" s="5" t="n">
+      <c r="C166" s="9" t="n">
         <v>4288.45</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="167" s="6" spans="1:4">
-      <c r="A167" s="7" t="n">
+      <c r="A167" s="9" t="n">
         <v>42030</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C167" s="5" t="n">
+      <c r="C167" s="9" t="n">
         <v>6655.49</v>
       </c>
     </row>
@@ -4094,24 +4122,24 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="180" s="6" spans="1:4">
-      <c r="A180" s="7" t="n">
+      <c r="A180" s="9" t="n">
         <v>42032</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C180" s="5" t="n">
+      <c r="C180" s="9" t="n">
         <v>1233.33</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="181" s="6" spans="1:4">
-      <c r="A181" s="7" t="n">
+      <c r="A181" s="9" t="n">
         <v>42032</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C181" s="5" t="n">
+      <c r="C181" s="9" t="n">
         <v>206</v>
       </c>
     </row>
@@ -4138,13 +4166,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="184" s="6" spans="1:4">
-      <c r="A184" s="7" t="n">
+      <c r="A184" s="9" t="n">
         <v>42032</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C184" s="5" t="n">
+      <c r="C184" s="9" t="n">
         <v>7217</v>
       </c>
     </row>
@@ -4193,13 +4221,13 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="189" s="6" spans="1:4">
-      <c r="A189" s="7" t="n">
+      <c r="A189" s="9" t="n">
         <v>42033</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C189" s="5" t="n">
+      <c r="C189" s="9" t="n">
         <v>7474.9</v>
       </c>
     </row>
